--- a/files/test.xlsx
+++ b/files/test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB3CF3C-4F59-437D-A0AC-1A73AD197CC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -19,21 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>ghbdtn</t>
-  </si>
-  <si>
-    <t>gfrte</t>
-  </si>
-  <si>
-    <t>tghy</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+  <si>
+    <t>вопрос</t>
+  </si>
+  <si>
+    <t>ответ1</t>
+  </si>
+  <si>
+    <t>ответ2</t>
+  </si>
+  <si>
+    <t>ответ3</t>
+  </si>
+  <si>
+    <t>ответ4</t>
+  </si>
+  <si>
+    <t>вопрос2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,35 +354,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>123</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>233</v>
-      </c>
-      <c r="C2">
-        <v>678</v>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
